--- a/program/config/exp_config/工艺参数包.xlsx
+++ b/program/config/exp_config/工艺参数包.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Order</t>
   </si>
@@ -126,6 +126,42 @@
   </si>
   <si>
     <t>Se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2_step1_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2_step1_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2_step3_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2_end_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2_step1_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2_step1_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2_step3_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2_end_flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -486,9 +522,16 @@
     <col min="28" max="28" width="13.88671875" customWidth="1"/>
     <col min="29" max="29" width="14" customWidth="1"/>
     <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="32" max="32" width="17.77734375" customWidth="1"/>
+    <col min="33" max="33" width="21.6640625" customWidth="1"/>
+    <col min="34" max="34" width="17.109375" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" customWidth="1"/>
+    <col min="36" max="36" width="16.77734375" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +622,32 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:38">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -603,22 +670,22 @@
         <v>25</v>
       </c>
       <c r="H2" s="1">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1">
         <v>-121</v>
@@ -627,52 +694,76 @@
         <v>25</v>
       </c>
       <c r="P2" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>850</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>850</v>
+        <v>80</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>80</v>
-      </c>
-      <c r="V2" s="2">
+        <v>25</v>
+      </c>
+      <c r="V2" s="1">
         <v>-121</v>
       </c>
       <c r="W2" s="3">
         <v>1.1574074074074101E-5</v>
       </c>
       <c r="X2" s="1">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="3">
-        <v>1.2731481481481499E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="Z2" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="3">
-        <v>1.1574074074074101E-5</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="AB2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="3">
         <v>1.2731481481481499E-4</v>
       </c>
       <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>1.2731481481481499E-4</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>1.2731481481481499E-4</v>
+      </c>
+      <c r="AL2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:38">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -755,16 +846,40 @@
         <v>1.1574074074074101E-5</v>
       </c>
       <c r="AB3" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="3">
-        <v>1.2731481481481499E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="AD3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1.2731481481481499E-4</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1.2731481481481499E-4</v>
+      </c>
+      <c r="AL3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:38">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -855,8 +970,32 @@
       <c r="AD4" s="1">
         <v>4</v>
       </c>
+      <c r="AE4" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1.2731481481481499E-4</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:38">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -947,8 +1086,32 @@
       <c r="AD5" s="1">
         <v>4</v>
       </c>
+      <c r="AE5" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>1.2731481481481499E-4</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:38">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1039,10 +1202,39 @@
       <c r="AD6" s="1">
         <v>4</v>
       </c>
+      <c r="AE6" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1.2731481481481499E-4</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>1.2731481481481499E-4</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:38">
       <c r="A7" s="1"/>
       <c r="L7" s="1"/>
+    </row>
+    <row r="20" spans="37:37">
+      <c r="AK20" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/program/config/exp_config/工艺参数包.xlsx
+++ b/program/config/exp_config/工艺参数包.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -673,13 +673,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -718,22 +718,22 @@
         <v>1.1574074074074101E-5</v>
       </c>
       <c r="X2" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="3">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="Z2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="3">
-        <v>1.1574074074074073E-5</v>
+        <v>1.1574074074074101E-5</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
       </c>
       <c r="AC2" s="3">
-        <v>1.2731481481481499E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="AD2" s="1">
         <v>0</v>
@@ -742,25 +742,25 @@
         <v>1.1574074074074101E-5</v>
       </c>
       <c r="AF2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="3">
-        <v>1.2731481481481499E-4</v>
+        <v>2.4305555555555552E-4</v>
       </c>
       <c r="AH2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="3">
-        <v>1.1574074074074073E-5</v>
+        <v>2.4305555555555552E-4</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="AK2" s="3">
-        <v>1.2731481481481499E-4</v>
+        <v>3.5879629629629635E-4</v>
       </c>
       <c r="AL2" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:38">
